--- a/inst/extdata/examples/xlsx/geo-first-example.xlsx
+++ b/inst/extdata/examples/xlsx/geo-first-example.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t xml:space="preserve">tab</t>
   </si>
@@ -27,10 +27,16 @@
     <t xml:space="preserve">map</t>
   </si>
   <si>
-    <t xml:space="preserve">geo_cbs_map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arbeidsmarktregio_2020</t>
+    <t xml:space="preserve">cbs_map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arbeidsmarktregio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbs_map_year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020</t>
   </si>
   <si>
     <t xml:space="preserve">region</t>
@@ -511,7 +517,15 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -529,18 +543,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -551,7 +565,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -562,7 +576,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -573,7 +587,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -584,7 +598,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -595,7 +609,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" t="n">
         <v>6</v>
@@ -606,7 +620,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" t="n">
         <v>7</v>
@@ -617,7 +631,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" t="n">
         <v>8</v>
@@ -628,7 +642,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" t="n">
         <v>9</v>
@@ -639,7 +653,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n">
         <v>10</v>
@@ -650,7 +664,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n">
         <v>11</v>
@@ -661,7 +675,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n">
         <v>12</v>
@@ -672,7 +686,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B14" t="n">
         <v>13</v>
@@ -683,7 +697,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="n">
         <v>14</v>
@@ -694,7 +708,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" t="n">
         <v>15</v>
@@ -705,7 +719,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B17" t="n">
         <v>16</v>
@@ -716,7 +730,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B18" t="n">
         <v>17</v>
@@ -727,7 +741,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B19" t="n">
         <v>18</v>
@@ -738,7 +752,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B20" t="n">
         <v>19</v>
@@ -749,7 +763,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B21" t="n">
         <v>20</v>
@@ -760,7 +774,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B22" t="n">
         <v>21</v>
@@ -771,7 +785,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B23" t="n">
         <v>22</v>
@@ -782,7 +796,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B24" t="n">
         <v>23</v>
@@ -793,7 +807,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B25" t="n">
         <v>24</v>
@@ -804,7 +818,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B26" t="n">
         <v>25</v>
@@ -815,7 +829,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B27" t="n">
         <v>26</v>
@@ -826,7 +840,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B28" t="n">
         <v>27</v>
@@ -837,7 +851,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B29" t="n">
         <v>28</v>
@@ -848,7 +862,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B30" t="n">
         <v>29</v>
@@ -859,7 +873,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B31" t="n">
         <v>30</v>
@@ -870,7 +884,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B32" t="n">
         <v>31</v>
@@ -881,7 +895,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B33" t="n">
         <v>32</v>
@@ -892,7 +906,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B34" t="n">
         <v>33</v>
@@ -903,7 +917,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B35" t="n">
         <v>34</v>
@@ -914,7 +928,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B36" t="n">
         <v>35</v>
@@ -925,7 +939,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B37" t="n">
         <v>36</v>
